--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75000BB9-013C-BA43-B3F7-E01D7CCF261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1D92A1-608B-9345-9052-7B80F7D45799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="194">
   <si>
     <t>Publicação</t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/unisuam-realiza-i-congresso-de-saude/</t>
+  </si>
+  <si>
+    <t>23/06/2023</t>
+  </si>
+  <si>
+    <t>Pesquisadores e doutorandos da UNISUAM participam do maior evento mundial em 2023 sobre dor na Holanda</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/pesquisadores-e-doutorandos-da-unisuam-participam-do-maior-evento-mundial-em-2023-sobre-dor-na-holanda/</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,100 +1027,111 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1D92A1-608B-9345-9052-7B80F7D45799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878566B-C944-134D-AC5E-334AF8E384A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="197">
   <si>
     <t>Publicação</t>
   </si>
@@ -626,6 +626,15 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/pesquisadores-e-doutorandos-da-unisuam-participam-do-maior-evento-mundial-em-2023-sobre-dor-na-holanda/</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
+  </si>
+  <si>
+    <t>Pesquisadores em Ciências da Reabilitação da UNISUAM publicam no The Lancet</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/pesquisadores-em-ciencias-da-reabilitacao-da-unisuam-publicam-no-the-lancet/</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1027,111 +1036,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878566B-C944-134D-AC5E-334AF8E384A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67936958-2DD2-E343-B2F9-790B3B915E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="200">
   <si>
     <t>Publicação</t>
   </si>
@@ -635,6 +635,15 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/nota-10/pesquisadores-em-ciencias-da-reabilitacao-da-unisuam-publicam-no-the-lancet/</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>UNISUAM forma Doutores em Ciências da Reabilitação em projeto com a Faculdade Inspirar</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/ppgcr-forma-doutores/</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,123 +1045,135 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67936958-2DD2-E343-B2F9-790B3B915E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A37BB-E7E4-994D-A1F5-7B3FEFE91251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="203">
   <si>
     <t>Publicação</t>
   </si>
@@ -644,6 +644,15 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/nota-10/ppgcr-forma-doutores/</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/unisuam-oferece-programas-de-intercambio-para-seus-alunos/</t>
+  </si>
+  <si>
+    <t>13/02/2023</t>
+  </si>
+  <si>
+    <t>UNISUAM oferece programas de intercâmbio para seus alunos</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1164,6 +1173,17 @@
         <v>168</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
@@ -1174,6 +1194,7 @@
     <hyperlink ref="C6" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
     <hyperlink ref="C3" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
     <hyperlink ref="C2" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A37BB-E7E4-994D-A1F5-7B3FEFE91251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA95FA29-8180-854E-B26E-128B4AD39B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="206">
   <si>
     <t>Publicação</t>
   </si>
@@ -653,6 +653,15 @@
   </si>
   <si>
     <t>UNISUAM oferece programas de intercâmbio para seus alunos</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>UNISUAM forma novos Mestres em Ciências da Reabilitação no Centro Universitário Dom Bosco</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/unisuam-forma-novos-mestres/</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,147 +1063,159 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA95FA29-8180-854E-B26E-128B4AD39B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428B224-59CC-8F40-AAC4-48E216B36A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="209">
   <si>
     <t>Publicação</t>
   </si>
@@ -662,6 +662,15 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/nota-10/unisuam-forma-novos-mestres/</t>
+  </si>
+  <si>
+    <t>25/09/2023</t>
+  </si>
+  <si>
+    <t>Programa de Ciências da Reabilitação realizada Seminário</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/programa-de-ciencias-da-reabilitacao-realizada-seminario/</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,159 +1072,171 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{3E3EBDC2-ADD9-B74F-8414-F435DA1D7DC0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428B224-59CC-8F40-AAC4-48E216B36A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A18D8-B8B3-2B4F-A38D-C1912528434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="212">
   <si>
     <t>Publicação</t>
   </si>
@@ -671,6 +671,15 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/nota-10/programa-de-ciencias-da-reabilitacao-realizada-seminario/</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/coruja-em-acao/programa-de-ciencias-da-reabilitacao-realiza-simposio-paradesportivo/</t>
+  </si>
+  <si>
+    <t>Programa de Ciências da Reabilitação realiza Simpósio Paradesportivo</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,171 +1081,183 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{3E3EBDC2-ADD9-B74F-8414-F435DA1D7DC0}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{3E3EBDC2-ADD9-B74F-8414-F435DA1D7DC0}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{F8A2B732-BCAA-6348-8B3C-7AD9AE51A460}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A18D8-B8B3-2B4F-A38D-C1912528434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4AE033-58AE-A045-BEB5-F46E58295374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="215">
   <si>
     <t>Publicação</t>
   </si>
@@ -680,6 +680,15 @@
   </si>
   <si>
     <t>Programa de Ciências da Reabilitação realiza Simpósio Paradesportivo</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>Parceria da UNISUAM com o eMuseu do Esporte produz impacto social pelo esporte</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto/parceria-da-unisuam-com-o-emuseu-do-esporte-produz-impacto-social-pelo-esporte/</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,183 +1090,194 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{3E3EBDC2-ADD9-B74F-8414-F435DA1D7DC0}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{F8A2B732-BCAA-6348-8B3C-7AD9AE51A460}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{3E3EBDC2-ADD9-B74F-8414-F435DA1D7DC0}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{F8A2B732-BCAA-6348-8B3C-7AD9AE51A460}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4AE033-58AE-A045-BEB5-F46E58295374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF8D08-E9FB-5749-9704-F533E243A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="16" r:id="rId1"/>
-    <sheet name="2022" sheetId="15" r:id="rId2"/>
-    <sheet name="2021" sheetId="1" r:id="rId3"/>
-    <sheet name="2020" sheetId="2" r:id="rId4"/>
-    <sheet name="2019" sheetId="8" r:id="rId5"/>
-    <sheet name="2018" sheetId="7" r:id="rId6"/>
-    <sheet name="2017" sheetId="6" r:id="rId7"/>
-    <sheet name="2016" sheetId="5" r:id="rId8"/>
-    <sheet name="2015" sheetId="11" r:id="rId9"/>
-    <sheet name="2014" sheetId="10" r:id="rId10"/>
-    <sheet name="2013" sheetId="9" r:id="rId11"/>
+    <sheet name="2024" sheetId="17" r:id="rId1"/>
+    <sheet name="2023" sheetId="16" r:id="rId2"/>
+    <sheet name="2022" sheetId="15" r:id="rId3"/>
+    <sheet name="2021" sheetId="1" r:id="rId4"/>
+    <sheet name="2020" sheetId="2" r:id="rId5"/>
+    <sheet name="2019" sheetId="8" r:id="rId6"/>
+    <sheet name="2018" sheetId="7" r:id="rId7"/>
+    <sheet name="2017" sheetId="6" r:id="rId8"/>
+    <sheet name="2016" sheetId="5" r:id="rId9"/>
+    <sheet name="2015" sheetId="11" r:id="rId10"/>
+    <sheet name="2014" sheetId="10" r:id="rId11"/>
+    <sheet name="2013" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="218">
   <si>
     <t>Publicação</t>
   </si>
@@ -689,6 +690,15 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/stricto/parceria-da-unisuam-com-o-emuseu-do-esporte-produz-impacto-social-pelo-esporte/</t>
+  </si>
+  <si>
+    <t>07/02/2024</t>
+  </si>
+  <si>
+    <t>Pesquisas da UNISUAM são referências para diretrizes e políticas de saúde internacionais</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto/pesquisas-da-unisuam-sao-referencias-para-diretrizes-e-politicas-de-saude-internacionais/</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1075,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{03C22A96-E523-AC41-8DCC-E97072CAF875}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D54DF-EE82-5F4E-81E4-885ED173C8CE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>42240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>42151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>42137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>42130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
+    <sortCondition descending="1" ref="A2:A5"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{980BD891-554E-1A4C-9BB2-52765A780A8C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{911316A9-1EE1-C74B-96CF-FC337AEBA8AD}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{2773B856-24D4-F34E-8B4C-E25DC40C3DF0}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{F1989636-3231-5D43-88AD-A390AE1D863D}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BABD60-4F88-7A4C-B8AB-7760AB881A42}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>41892</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{175E55AD-4B59-0C43-96E2-7638D72788FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64BFB7-250C-AD46-B331-D8891189F904}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>41544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>41495</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>41376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
+    <sortCondition descending="1" ref="A2:A4"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{14BFDA5E-D404-0E41-9E36-357952D300AD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{90E95351-4F8A-2E4A-970C-42A7F02F5707}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{27F486F5-FD99-FB44-80DB-8D48E9E943BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1283,120 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BABD60-4F88-7A4C-B8AB-7760AB881A42}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>41892</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{175E55AD-4B59-0C43-96E2-7638D72788FF}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64BFB7-250C-AD46-B331-D8891189F904}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>41544</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>41495</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>41376</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
-    <sortCondition descending="1" ref="A2:A4"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{14BFDA5E-D404-0E41-9E36-357952D300AD}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{90E95351-4F8A-2E4A-970C-42A7F02F5707}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{27F486F5-FD99-FB44-80DB-8D48E9E943BB}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1598,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4F1D8-3C59-3040-AE37-239E93101BCF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1716,7 +1851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE037EEE-6808-0D49-851E-79F849A82658}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1774,7 +1909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A0B706-7D6A-0B4B-9FAF-9D5F61DDE500}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1928,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2070,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDD696-0EC2-6943-8192-402E1F595E40}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -2380,7 +2515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0E70C-191D-3B4A-A0F5-97DE08090027}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2520,86 +2655,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D54DF-EE82-5F4E-81E4-885ED173C8CE}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>42240</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>42151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>42137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>42130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
-    <sortCondition descending="1" ref="A2:A5"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{980BD891-554E-1A4C-9BB2-52765A780A8C}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{911316A9-1EE1-C74B-96CF-FC337AEBA8AD}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{2773B856-24D4-F34E-8B4C-E25DC40C3DF0}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{F1989636-3231-5D43-88AD-A390AE1D863D}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF8D08-E9FB-5749-9704-F533E243A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8058C8-7895-F841-9E78-ECFC2ADD7500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="221">
   <si>
     <t>Publicação</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/stricto/pesquisas-da-unisuam-sao-referencias-para-diretrizes-e-politicas-de-saude-internacionais/</t>
+  </si>
+  <si>
+    <t>15/02/2024</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto/pesquisadores-da-unisuam-participam-da-producao-de-livro-internacional/</t>
+  </si>
+  <si>
+    <t>Pesquisadores da UNISUAM participam da produção de livro internacional</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1100,18 +1109,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{03C22A96-E523-AC41-8DCC-E97072CAF875}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3A92177A-E374-184D-BC68-D88C8A086C01}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8058C8-7895-F841-9E78-ECFC2ADD7500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEE0F7C-E0DC-5947-9566-D48E5F49E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="224">
   <si>
     <t>Publicação</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t>Pesquisadores da UNISUAM participam da produção de livro internacional</t>
+  </si>
+  <si>
+    <t>21/02/2024</t>
+  </si>
+  <si>
+    <t>Observatório desenvolvido na UNISUAM disseminado entre Programas de Pós-Graduação no país</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto/observatorio-disseminados/</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1109,30 +1118,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{03C22A96-E523-AC41-8DCC-E97072CAF875}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{3A92177A-E374-184D-BC68-D88C8A086C01}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{03C22A96-E523-AC41-8DCC-E97072CAF875}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{3A92177A-E374-184D-BC68-D88C8A086C01}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{BE2041D7-FB06-D54B-8487-C78B66E19B6E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4370A-C6F3-2C42-A910-97DFED83E740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11948DE8-F1B0-4E4D-8712-A65FF3BE5397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
   <si>
     <t>Publicação</t>
   </si>
@@ -682,15 +682,24 @@
   </si>
   <si>
     <t>2013</t>
+  </si>
+  <si>
+    <t>Pesquisadores da UNISUAM participam de Fórum Pesquisa e Pós-graduação em Fisioterapia</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto/pesquisadores-da-unisuam-participam-de-forum-pesquisa-e-pos-graduacao-em-fisioterapia/</t>
+  </si>
+  <si>
+    <t>Laboratórios de Stricto Sensu da UNISUAM estão cadastrados pelo Ministério da Ciência e Tecnologia</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto/laboratorios-de-stricto-sensu-da-unisuam-estao-cadastrados-pelo-ministerio-da-ciencia-e-tecnologia/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -737,14 +746,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -764,9 +772,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -804,7 +812,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -910,7 +918,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1052,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,19 +1068,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1082,910 +1092,910 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>2022</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>2022</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>2022</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>2022</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>2022</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>2022</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>2022</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>2022</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>2022</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>2022</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>2022</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>2022</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>2022</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>2022</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B84" t="s">
@@ -1996,7 +2006,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B85" t="s">
@@ -2007,7 +2017,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B86" t="s">
@@ -2018,7 +2028,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B87" t="s">
@@ -2029,7 +2039,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B88" t="s">
@@ -2040,7 +2050,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B89" t="s">
@@ -2051,7 +2061,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B90" t="s">
@@ -2062,7 +2072,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B91" t="s">
@@ -2073,7 +2083,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B92" t="s">
@@ -2084,7 +2094,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B93" t="s">
@@ -2095,7 +2105,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B94" t="s">
@@ -2106,7 +2116,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B95" t="s">
@@ -2117,7 +2127,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B96" t="s">
@@ -2128,7 +2138,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B97" t="s">
@@ -2139,7 +2149,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B98" t="s">
@@ -2150,7 +2160,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B99" t="s">
@@ -2161,7 +2171,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B100" t="s">
@@ -2172,7 +2182,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B101" t="s">
@@ -2183,7 +2193,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B102" t="s">
@@ -2191,6 +2201,28 @@
       </c>
       <c r="C102" s="2" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2292,6 +2324,8 @@
     <hyperlink ref="C2" r:id="rId95" xr:uid="{14BFDA5E-D404-0E41-9E36-357952D300AD}"/>
     <hyperlink ref="C3" r:id="rId96" xr:uid="{90E95351-4F8A-2E4A-970C-42A7F02F5707}"/>
     <hyperlink ref="C4" r:id="rId97" xr:uid="{27F486F5-FD99-FB44-80DB-8D48E9E943BB}"/>
+    <hyperlink ref="C104" r:id="rId98" xr:uid="{7C587B42-05DE-3A48-904D-BAC3DE7FC8AD}"/>
+    <hyperlink ref="C103" r:id="rId99" xr:uid="{A24EF633-D40C-0044-B255-8187574B3EFA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11948DE8-F1B0-4E4D-8712-A65FF3BE5397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D84E5-2442-444F-8D36-B7569BB034B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="222">
   <si>
     <t>Publicação</t>
   </si>
@@ -694,6 +694,12 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/stricto/laboratorios-de-stricto-sensu-da-unisuam-estao-cadastrados-pelo-ministerio-da-ciencia-e-tecnologia/</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
   </si>
 </sst>
 </file>
@@ -772,9 +778,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -812,7 +818,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -918,7 +924,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1060,7 +1066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1068,20 +1074,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="174.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1089,1243 +1094,1555 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>2022</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>2022</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>2022</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>2022</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>2022</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>2022</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>2022</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>2022</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>2022</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>2022</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>2022</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>2022</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>2022</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>2022</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B84" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B85" t="s">
         <v>196</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B86" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B87" t="s">
         <v>191</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B88" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B89" t="s">
         <v>185</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B90" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B91" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B92" t="s">
         <v>178</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B93" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B94" t="s">
         <v>174</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B95" t="s">
         <v>171</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B96" t="s">
         <v>181</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B97" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B98" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B99" t="s">
         <v>190</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B100" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B101" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B102" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B103" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>2024</v>
       </c>
       <c r="B104" t="s">
         <v>216</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C101" r:id="rId1" xr:uid="{03C22A96-E523-AC41-8DCC-E97072CAF875}"/>
-    <hyperlink ref="C102" r:id="rId2" xr:uid="{3A92177A-E374-184D-BC68-D88C8A086C01}"/>
-    <hyperlink ref="C100" r:id="rId3" xr:uid="{BE2041D7-FB06-D54B-8487-C78B66E19B6E}"/>
-    <hyperlink ref="C98" r:id="rId4" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C97" r:id="rId5" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C95" r:id="rId6" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C94" r:id="rId7" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C93" r:id="rId8" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C92" r:id="rId9" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
-    <hyperlink ref="C89" r:id="rId10" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
-    <hyperlink ref="C88" r:id="rId11" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
-    <hyperlink ref="C99" r:id="rId12" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
-    <hyperlink ref="C87" r:id="rId13" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
-    <hyperlink ref="C86" r:id="rId14" xr:uid="{3E3EBDC2-ADD9-B74F-8414-F435DA1D7DC0}"/>
-    <hyperlink ref="C85" r:id="rId15" xr:uid="{F8A2B732-BCAA-6348-8B3C-7AD9AE51A460}"/>
-    <hyperlink ref="C81" r:id="rId16" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C82" r:id="rId17" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C83" r:id="rId18" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C80" r:id="rId19" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C79" r:id="rId20" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
-    <hyperlink ref="C78" r:id="rId21" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
-    <hyperlink ref="C77" r:id="rId22" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
-    <hyperlink ref="C76" r:id="rId23" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
-    <hyperlink ref="C75" r:id="rId24" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
-    <hyperlink ref="C74" r:id="rId25" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
-    <hyperlink ref="C73" r:id="rId26" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
-    <hyperlink ref="C72" r:id="rId27" xr:uid="{C5C82763-024A-9F4F-80C4-3C8982FFD800}"/>
-    <hyperlink ref="C71" r:id="rId28" xr:uid="{168D9EA8-987A-EB4E-A97D-D4064C544AFF}"/>
-    <hyperlink ref="C70" r:id="rId29" xr:uid="{F6BF5972-9996-1743-BC92-E7B098811882}"/>
-    <hyperlink ref="C68" r:id="rId30" xr:uid="{C3EAF9AF-2827-DC45-872C-587DFBDA36BE}"/>
-    <hyperlink ref="C67" r:id="rId31" xr:uid="{37EE32E2-4675-5046-B5C3-0E3F417F66CC}"/>
-    <hyperlink ref="C66" r:id="rId32" xr:uid="{173C5F47-99DF-2048-8C87-E5B9E785945F}"/>
-    <hyperlink ref="C65" r:id="rId33" xr:uid="{E2495E1B-2A36-514B-8851-AEE566A7AE56}"/>
-    <hyperlink ref="C64" r:id="rId34" xr:uid="{DC572EB1-D2A0-0E42-B831-69C839CB2FF1}"/>
-    <hyperlink ref="C69" r:id="rId35" xr:uid="{A93D0A32-6A97-6B43-BE8D-7543565C61F8}"/>
-    <hyperlink ref="C63" r:id="rId36" xr:uid="{061AEE45-0518-3F49-99AC-2C577EAC9824}"/>
-    <hyperlink ref="C61" r:id="rId37" xr:uid="{09D4D630-9559-9D4F-93C5-6454212D4838}"/>
-    <hyperlink ref="C62" r:id="rId38" xr:uid="{3A001349-2DEF-B94F-B5D1-20EBD69A425A}"/>
-    <hyperlink ref="C51" r:id="rId39" xr:uid="{B57E87A5-EFBA-0246-B833-1595F0467CA5}"/>
-    <hyperlink ref="C52" r:id="rId40" xr:uid="{DF129224-8712-4041-B57F-1AF992A1EB93}"/>
-    <hyperlink ref="C56" r:id="rId41" xr:uid="{EBC19860-97DE-AA40-85B6-5A5BBE28B43E}"/>
-    <hyperlink ref="C60" r:id="rId42" xr:uid="{5D0A3B52-ACC1-434D-8518-6C28CF4E5D78}"/>
-    <hyperlink ref="C53" r:id="rId43" xr:uid="{F93EE3FA-8CB1-364C-8F32-077F847C168A}"/>
-    <hyperlink ref="C54" r:id="rId44" xr:uid="{C40E8741-D808-1A41-9D8D-8781A6630854}"/>
-    <hyperlink ref="C55" r:id="rId45" xr:uid="{FD538B82-85AB-BD42-8E0B-57A52A8FCE7C}"/>
-    <hyperlink ref="C57" r:id="rId46" xr:uid="{637517E1-B691-9845-8DA7-CF7B2A697D4D}"/>
-    <hyperlink ref="C58" r:id="rId47" xr:uid="{CA922D9D-022F-7B48-9336-2DFE6C20ED80}"/>
-    <hyperlink ref="C59" r:id="rId48" xr:uid="{FEBA1A5E-9D13-4B4B-9C67-231C502205EF}"/>
-    <hyperlink ref="C42" r:id="rId49" xr:uid="{436C1664-9253-2E4A-80FA-C605EE0FAF07}"/>
-    <hyperlink ref="C43" r:id="rId50" xr:uid="{40BA72A3-F206-8D45-AEF7-72B06E026C27}"/>
-    <hyperlink ref="C45" r:id="rId51" xr:uid="{465320A8-E87C-8B4D-AA9E-0E3A72948D54}"/>
-    <hyperlink ref="C46" r:id="rId52" xr:uid="{FBD6B4E7-132A-C945-99D1-644DB7BAA16B}"/>
-    <hyperlink ref="C47" r:id="rId53" xr:uid="{0D76FFF9-907E-E443-8921-F83848D593D1}"/>
-    <hyperlink ref="C48" r:id="rId54" xr:uid="{7179758B-F195-4D4C-A399-DC0981F20BC6}"/>
-    <hyperlink ref="C50" r:id="rId55" xr:uid="{74368FD5-6291-AB4B-AAC9-D2E122E39ED6}"/>
-    <hyperlink ref="C44" r:id="rId56" xr:uid="{9DAC3507-48E3-4848-9EBF-6B3EDC08B211}"/>
-    <hyperlink ref="C49" r:id="rId57" xr:uid="{08D98D7A-D42A-9B49-9B00-EFA760A3CFD9}"/>
-    <hyperlink ref="C21" r:id="rId58" xr:uid="{AFD9FA16-4B69-6E44-806F-5E8339AC33FA}"/>
-    <hyperlink ref="C24" r:id="rId59" xr:uid="{5E24E567-5597-5D4F-91FC-86DBFDEF0093}"/>
-    <hyperlink ref="C26" r:id="rId60" xr:uid="{DF61142E-DD0B-C84C-A04E-087289D146BD}"/>
-    <hyperlink ref="C27" r:id="rId61" xr:uid="{1C999D87-8580-BE45-BD3B-F0980E8FAF77}"/>
-    <hyperlink ref="C28" r:id="rId62" xr:uid="{E77F7743-0241-C34E-AA21-59BC06F261A0}"/>
-    <hyperlink ref="C37" r:id="rId63" xr:uid="{1AA91F4D-0038-D440-8599-BC274F98F99E}"/>
-    <hyperlink ref="C35" r:id="rId64" xr:uid="{7A6A04FC-BC02-F94A-9485-41C8E3A8D6F7}"/>
-    <hyperlink ref="C34" r:id="rId65" xr:uid="{B8A8BA8B-2BD3-594E-8F9F-5424EF122AB7}"/>
-    <hyperlink ref="C32" r:id="rId66" xr:uid="{444AA8E9-E1DC-7543-B2CE-A6E50768C4FC}"/>
-    <hyperlink ref="C30" r:id="rId67" xr:uid="{A954F076-F55E-B249-8775-4C49FC20E35E}"/>
-    <hyperlink ref="C31" r:id="rId68" xr:uid="{E0DA7D68-EE9A-6D43-88A0-2F449E8E4475}"/>
-    <hyperlink ref="C29" r:id="rId69" xr:uid="{096B1292-3098-2043-9E92-41D927022ED0}"/>
-    <hyperlink ref="C25" r:id="rId70" xr:uid="{A7269CA4-EE3B-6648-8CDB-BED57B59B3E5}"/>
-    <hyperlink ref="C23" r:id="rId71" xr:uid="{3179314D-D986-5249-AC29-FC6FD5D8F536}"/>
-    <hyperlink ref="C22" r:id="rId72" xr:uid="{739D64C3-9742-AA42-A21F-D7E24A9DD326}"/>
-    <hyperlink ref="C19" r:id="rId73" xr:uid="{C86CFF43-0FFA-AE45-8648-09A5E9C67985}"/>
-    <hyperlink ref="C41" r:id="rId74" xr:uid="{C1B01FDB-90B5-F841-95C6-A09917C0121A}"/>
-    <hyperlink ref="C38" r:id="rId75" xr:uid="{DD18A7D6-8C16-794E-A076-8CFFC6BC2246}"/>
-    <hyperlink ref="C39" r:id="rId76" xr:uid="{E330D369-7D34-0E4C-9356-1AC4101A0AC2}"/>
-    <hyperlink ref="C40" r:id="rId77" xr:uid="{A7FDAAC7-389E-8F49-95D0-2624B9A53013}"/>
-    <hyperlink ref="C33" r:id="rId78" xr:uid="{138A139A-5D4B-AF43-A969-61A250BFCA17}"/>
-    <hyperlink ref="C20" r:id="rId79" xr:uid="{73C7F379-BF47-544B-A7EF-94FEBF8B1E1C}"/>
-    <hyperlink ref="C36" r:id="rId80" xr:uid="{46FE1894-1EC0-0B48-942B-412685EBD44F}"/>
-    <hyperlink ref="C17" r:id="rId81" xr:uid="{BFB48FC0-F7CA-6A45-BB37-F341E02A8EFF}"/>
-    <hyperlink ref="C13" r:id="rId82" xr:uid="{DFA45BBD-A49F-5844-83DC-266851743F36}"/>
-    <hyperlink ref="C10" r:id="rId83" xr:uid="{318C4262-3AF0-6347-8B2A-E04C39C1B6F7}"/>
-    <hyperlink ref="C11" r:id="rId84" xr:uid="{6861E3E5-5263-1045-A20D-226EB8E47BF4}"/>
-    <hyperlink ref="C12" r:id="rId85" xr:uid="{48C8D357-B583-FF43-9A99-59AFCC0F87E7}"/>
-    <hyperlink ref="C18" r:id="rId86" xr:uid="{9DB7BD10-ED77-2F4C-8062-D50B8C63A0E7}"/>
-    <hyperlink ref="C16" r:id="rId87" xr:uid="{A70A96CD-3086-574D-9E8F-8B8B3DF5CFDF}"/>
-    <hyperlink ref="C14" r:id="rId88" xr:uid="{3DD92D95-BD20-D74F-B150-08E37F681EAE}"/>
-    <hyperlink ref="C15" r:id="rId89" xr:uid="{4A5F4FBA-0CAF-DC48-81B0-21DB37F3BF9E}"/>
-    <hyperlink ref="C7" r:id="rId90" xr:uid="{980BD891-554E-1A4C-9BB2-52765A780A8C}"/>
-    <hyperlink ref="C6" r:id="rId91" xr:uid="{911316A9-1EE1-C74B-96CF-FC337AEBA8AD}"/>
-    <hyperlink ref="C9" r:id="rId92" xr:uid="{2773B856-24D4-F34E-8B4C-E25DC40C3DF0}"/>
-    <hyperlink ref="C8" r:id="rId93" xr:uid="{F1989636-3231-5D43-88AD-A390AE1D863D}"/>
-    <hyperlink ref="C5" r:id="rId94" xr:uid="{175E55AD-4B59-0C43-96E2-7638D72788FF}"/>
-    <hyperlink ref="C2" r:id="rId95" xr:uid="{14BFDA5E-D404-0E41-9E36-357952D300AD}"/>
-    <hyperlink ref="C3" r:id="rId96" xr:uid="{90E95351-4F8A-2E4A-970C-42A7F02F5707}"/>
-    <hyperlink ref="C4" r:id="rId97" xr:uid="{27F486F5-FD99-FB44-80DB-8D48E9E943BB}"/>
-    <hyperlink ref="C104" r:id="rId98" xr:uid="{7C587B42-05DE-3A48-904D-BAC3DE7FC8AD}"/>
-    <hyperlink ref="C103" r:id="rId99" xr:uid="{A24EF633-D40C-0044-B255-8187574B3EFA}"/>
+    <hyperlink ref="D101" r:id="rId1" xr:uid="{03C22A96-E523-AC41-8DCC-E97072CAF875}"/>
+    <hyperlink ref="D102" r:id="rId2" xr:uid="{3A92177A-E374-184D-BC68-D88C8A086C01}"/>
+    <hyperlink ref="D100" r:id="rId3" xr:uid="{BE2041D7-FB06-D54B-8487-C78B66E19B6E}"/>
+    <hyperlink ref="D98" r:id="rId4" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="D97" r:id="rId5" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="D95" r:id="rId6" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="D94" r:id="rId7" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="D93" r:id="rId8" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="D92" r:id="rId9" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="D89" r:id="rId10" xr:uid="{90C48BEA-4C00-A54B-BED1-54715A0DA0AF}"/>
+    <hyperlink ref="D88" r:id="rId11" xr:uid="{9C590765-B8D4-E344-858F-7DCA4971BC02}"/>
+    <hyperlink ref="D99" r:id="rId12" xr:uid="{2FE65BEF-B54C-FF4D-8215-C08D1BDA1029}"/>
+    <hyperlink ref="D87" r:id="rId13" xr:uid="{FBEDD8FD-59EC-2342-91CA-747D49BE435F}"/>
+    <hyperlink ref="D86" r:id="rId14" xr:uid="{3E3EBDC2-ADD9-B74F-8414-F435DA1D7DC0}"/>
+    <hyperlink ref="D85" r:id="rId15" xr:uid="{F8A2B732-BCAA-6348-8B3C-7AD9AE51A460}"/>
+    <hyperlink ref="D81" r:id="rId16" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="D82" r:id="rId17" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="D83" r:id="rId18" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="D80" r:id="rId19" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="D79" r:id="rId20" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="D78" r:id="rId21" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="D77" r:id="rId22" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
+    <hyperlink ref="D76" r:id="rId23" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
+    <hyperlink ref="D75" r:id="rId24" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
+    <hyperlink ref="D74" r:id="rId25" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
+    <hyperlink ref="D73" r:id="rId26" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
+    <hyperlink ref="D72" r:id="rId27" xr:uid="{C5C82763-024A-9F4F-80C4-3C8982FFD800}"/>
+    <hyperlink ref="D71" r:id="rId28" xr:uid="{168D9EA8-987A-EB4E-A97D-D4064C544AFF}"/>
+    <hyperlink ref="D70" r:id="rId29" xr:uid="{F6BF5972-9996-1743-BC92-E7B098811882}"/>
+    <hyperlink ref="D68" r:id="rId30" xr:uid="{C3EAF9AF-2827-DC45-872C-587DFBDA36BE}"/>
+    <hyperlink ref="D67" r:id="rId31" xr:uid="{37EE32E2-4675-5046-B5C3-0E3F417F66CC}"/>
+    <hyperlink ref="D66" r:id="rId32" xr:uid="{173C5F47-99DF-2048-8C87-E5B9E785945F}"/>
+    <hyperlink ref="D65" r:id="rId33" xr:uid="{E2495E1B-2A36-514B-8851-AEE566A7AE56}"/>
+    <hyperlink ref="D64" r:id="rId34" xr:uid="{DC572EB1-D2A0-0E42-B831-69C839CB2FF1}"/>
+    <hyperlink ref="D69" r:id="rId35" xr:uid="{A93D0A32-6A97-6B43-BE8D-7543565C61F8}"/>
+    <hyperlink ref="D63" r:id="rId36" xr:uid="{061AEE45-0518-3F49-99AC-2C577EAC9824}"/>
+    <hyperlink ref="D61" r:id="rId37" xr:uid="{09D4D630-9559-9D4F-93C5-6454212D4838}"/>
+    <hyperlink ref="D62" r:id="rId38" xr:uid="{3A001349-2DEF-B94F-B5D1-20EBD69A425A}"/>
+    <hyperlink ref="D51" r:id="rId39" xr:uid="{B57E87A5-EFBA-0246-B833-1595F0467CA5}"/>
+    <hyperlink ref="D52" r:id="rId40" xr:uid="{DF129224-8712-4041-B57F-1AF992A1EB93}"/>
+    <hyperlink ref="D56" r:id="rId41" xr:uid="{EBC19860-97DE-AA40-85B6-5A5BBE28B43E}"/>
+    <hyperlink ref="D60" r:id="rId42" xr:uid="{5D0A3B52-ACC1-434D-8518-6C28CF4E5D78}"/>
+    <hyperlink ref="D53" r:id="rId43" xr:uid="{F93EE3FA-8CB1-364C-8F32-077F847C168A}"/>
+    <hyperlink ref="D54" r:id="rId44" xr:uid="{C40E8741-D808-1A41-9D8D-8781A6630854}"/>
+    <hyperlink ref="D55" r:id="rId45" xr:uid="{FD538B82-85AB-BD42-8E0B-57A52A8FCE7C}"/>
+    <hyperlink ref="D57" r:id="rId46" xr:uid="{637517E1-B691-9845-8DA7-CF7B2A697D4D}"/>
+    <hyperlink ref="D58" r:id="rId47" xr:uid="{CA922D9D-022F-7B48-9336-2DFE6C20ED80}"/>
+    <hyperlink ref="D59" r:id="rId48" xr:uid="{FEBA1A5E-9D13-4B4B-9C67-231C502205EF}"/>
+    <hyperlink ref="D42" r:id="rId49" xr:uid="{436C1664-9253-2E4A-80FA-C605EE0FAF07}"/>
+    <hyperlink ref="D43" r:id="rId50" xr:uid="{40BA72A3-F206-8D45-AEF7-72B06E026C27}"/>
+    <hyperlink ref="D45" r:id="rId51" xr:uid="{465320A8-E87C-8B4D-AA9E-0E3A72948D54}"/>
+    <hyperlink ref="D46" r:id="rId52" xr:uid="{FBD6B4E7-132A-C945-99D1-644DB7BAA16B}"/>
+    <hyperlink ref="D47" r:id="rId53" xr:uid="{0D76FFF9-907E-E443-8921-F83848D593D1}"/>
+    <hyperlink ref="D48" r:id="rId54" xr:uid="{7179758B-F195-4D4C-A399-DC0981F20BC6}"/>
+    <hyperlink ref="D50" r:id="rId55" xr:uid="{74368FD5-6291-AB4B-AAC9-D2E122E39ED6}"/>
+    <hyperlink ref="D44" r:id="rId56" xr:uid="{9DAC3507-48E3-4848-9EBF-6B3EDC08B211}"/>
+    <hyperlink ref="D49" r:id="rId57" xr:uid="{08D98D7A-D42A-9B49-9B00-EFA760A3CFD9}"/>
+    <hyperlink ref="D21" r:id="rId58" xr:uid="{AFD9FA16-4B69-6E44-806F-5E8339AC33FA}"/>
+    <hyperlink ref="D24" r:id="rId59" xr:uid="{5E24E567-5597-5D4F-91FC-86DBFDEF0093}"/>
+    <hyperlink ref="D26" r:id="rId60" xr:uid="{DF61142E-DD0B-C84C-A04E-087289D146BD}"/>
+    <hyperlink ref="D27" r:id="rId61" xr:uid="{1C999D87-8580-BE45-BD3B-F0980E8FAF77}"/>
+    <hyperlink ref="D28" r:id="rId62" xr:uid="{E77F7743-0241-C34E-AA21-59BC06F261A0}"/>
+    <hyperlink ref="D37" r:id="rId63" xr:uid="{1AA91F4D-0038-D440-8599-BC274F98F99E}"/>
+    <hyperlink ref="D35" r:id="rId64" xr:uid="{7A6A04FC-BC02-F94A-9485-41C8E3A8D6F7}"/>
+    <hyperlink ref="D34" r:id="rId65" xr:uid="{B8A8BA8B-2BD3-594E-8F9F-5424EF122AB7}"/>
+    <hyperlink ref="D32" r:id="rId66" xr:uid="{444AA8E9-E1DC-7543-B2CE-A6E50768C4FC}"/>
+    <hyperlink ref="D30" r:id="rId67" xr:uid="{A954F076-F55E-B249-8775-4C49FC20E35E}"/>
+    <hyperlink ref="D31" r:id="rId68" xr:uid="{E0DA7D68-EE9A-6D43-88A0-2F449E8E4475}"/>
+    <hyperlink ref="D29" r:id="rId69" xr:uid="{096B1292-3098-2043-9E92-41D927022ED0}"/>
+    <hyperlink ref="D25" r:id="rId70" xr:uid="{A7269CA4-EE3B-6648-8CDB-BED57B59B3E5}"/>
+    <hyperlink ref="D23" r:id="rId71" xr:uid="{3179314D-D986-5249-AC29-FC6FD5D8F536}"/>
+    <hyperlink ref="D22" r:id="rId72" xr:uid="{739D64C3-9742-AA42-A21F-D7E24A9DD326}"/>
+    <hyperlink ref="D19" r:id="rId73" xr:uid="{C86CFF43-0FFA-AE45-8648-09A5E9C67985}"/>
+    <hyperlink ref="D41" r:id="rId74" xr:uid="{C1B01FDB-90B5-F841-95C6-A09917C0121A}"/>
+    <hyperlink ref="D38" r:id="rId75" xr:uid="{DD18A7D6-8C16-794E-A076-8CFFC6BC2246}"/>
+    <hyperlink ref="D39" r:id="rId76" xr:uid="{E330D369-7D34-0E4C-9356-1AC4101A0AC2}"/>
+    <hyperlink ref="D40" r:id="rId77" xr:uid="{A7FDAAC7-389E-8F49-95D0-2624B9A53013}"/>
+    <hyperlink ref="D33" r:id="rId78" xr:uid="{138A139A-5D4B-AF43-A969-61A250BFCA17}"/>
+    <hyperlink ref="D20" r:id="rId79" xr:uid="{73C7F379-BF47-544B-A7EF-94FEBF8B1E1C}"/>
+    <hyperlink ref="D36" r:id="rId80" xr:uid="{46FE1894-1EC0-0B48-942B-412685EBD44F}"/>
+    <hyperlink ref="D17" r:id="rId81" xr:uid="{BFB48FC0-F7CA-6A45-BB37-F341E02A8EFF}"/>
+    <hyperlink ref="D13" r:id="rId82" xr:uid="{DFA45BBD-A49F-5844-83DC-266851743F36}"/>
+    <hyperlink ref="D10" r:id="rId83" xr:uid="{318C4262-3AF0-6347-8B2A-E04C39C1B6F7}"/>
+    <hyperlink ref="D11" r:id="rId84" xr:uid="{6861E3E5-5263-1045-A20D-226EB8E47BF4}"/>
+    <hyperlink ref="D12" r:id="rId85" xr:uid="{48C8D357-B583-FF43-9A99-59AFCC0F87E7}"/>
+    <hyperlink ref="D18" r:id="rId86" xr:uid="{9DB7BD10-ED77-2F4C-8062-D50B8C63A0E7}"/>
+    <hyperlink ref="D16" r:id="rId87" xr:uid="{A70A96CD-3086-574D-9E8F-8B8B3DF5CFDF}"/>
+    <hyperlink ref="D14" r:id="rId88" xr:uid="{3DD92D95-BD20-D74F-B150-08E37F681EAE}"/>
+    <hyperlink ref="D15" r:id="rId89" xr:uid="{4A5F4FBA-0CAF-DC48-81B0-21DB37F3BF9E}"/>
+    <hyperlink ref="D7" r:id="rId90" xr:uid="{980BD891-554E-1A4C-9BB2-52765A780A8C}"/>
+    <hyperlink ref="D6" r:id="rId91" xr:uid="{911316A9-1EE1-C74B-96CF-FC337AEBA8AD}"/>
+    <hyperlink ref="D9" r:id="rId92" xr:uid="{2773B856-24D4-F34E-8B4C-E25DC40C3DF0}"/>
+    <hyperlink ref="D8" r:id="rId93" xr:uid="{F1989636-3231-5D43-88AD-A390AE1D863D}"/>
+    <hyperlink ref="D5" r:id="rId94" xr:uid="{175E55AD-4B59-0C43-96E2-7638D72788FF}"/>
+    <hyperlink ref="D2" r:id="rId95" xr:uid="{14BFDA5E-D404-0E41-9E36-357952D300AD}"/>
+    <hyperlink ref="D3" r:id="rId96" xr:uid="{90E95351-4F8A-2E4A-970C-42A7F02F5707}"/>
+    <hyperlink ref="D4" r:id="rId97" xr:uid="{27F486F5-FD99-FB44-80DB-8D48E9E943BB}"/>
+    <hyperlink ref="D104" r:id="rId98" xr:uid="{7C587B42-05DE-3A48-904D-BAC3DE7FC8AD}"/>
+    <hyperlink ref="D103" r:id="rId99" xr:uid="{A24EF633-D40C-0044-B255-8187574B3EFA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D84E5-2442-444F-8D36-B7569BB034B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDBF733-A20F-C040-8466-26658CC25F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="224">
   <si>
     <t>Publicação</t>
   </si>
@@ -700,6 +700,12 @@
   </si>
   <si>
     <t>Brasil</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/programa-de-ciencias-da-reabilitacao-realiza-o-viii-simposio-paradesportivo-carioca/</t>
+  </si>
+  <si>
+    <t>Programa de Ciências da Reabilitação realiza o VIII Simpósio Paradesportivo Carioca</t>
   </si>
 </sst>
 </file>
@@ -778,9 +784,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -818,7 +824,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -924,7 +930,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1066,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,9 +1080,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2540,6 +2548,20 @@
       </c>
       <c r="D104" s="2" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2643,6 +2665,7 @@
     <hyperlink ref="D4" r:id="rId97" xr:uid="{27F486F5-FD99-FB44-80DB-8D48E9E943BB}"/>
     <hyperlink ref="D104" r:id="rId98" xr:uid="{7C587B42-05DE-3A48-904D-BAC3DE7FC8AD}"/>
     <hyperlink ref="D103" r:id="rId99" xr:uid="{A24EF633-D40C-0044-B255-8187574B3EFA}"/>
+    <hyperlink ref="D105" r:id="rId100" xr:uid="{B310F626-6CC6-7848-9FA8-1D384E6AA5EE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDBF733-A20F-C040-8466-26658CC25F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D24112-0E22-7E40-83A1-D468860D69F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="17" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
   <si>
     <t>Publicação</t>
   </si>
@@ -706,6 +706,18 @@
   </si>
   <si>
     <t>Programa de Ciências da Reabilitação realiza o VIII Simpósio Paradesportivo Carioca</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/coruja-em-acao/egressos-de-destaque-da-unisuam-compoem-camaras-tecnicas-do-crefito2/</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto/ciencias-da-reabilitacao-professor-da-unisuam-e-convidado-para-ser-professor-visitante-na-mcmaster-university</t>
+  </si>
+  <si>
+    <t>Ciências da Reabilitação: Professor do Mestrado e Doutorado da UNISUAM é convidado para ser professor visitante em universidade canadense</t>
+  </si>
+  <si>
+    <t>Egressos de destaque da UNISUAM compõem Câmaras Técnicas do CREFITO-2</t>
   </si>
 </sst>
 </file>
@@ -1080,11 +1092,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2562,6 +2572,34 @@
       </c>
       <c r="D105" s="2" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2666,6 +2704,8 @@
     <hyperlink ref="D104" r:id="rId98" xr:uid="{7C587B42-05DE-3A48-904D-BAC3DE7FC8AD}"/>
     <hyperlink ref="D103" r:id="rId99" xr:uid="{A24EF633-D40C-0044-B255-8187574B3EFA}"/>
     <hyperlink ref="D105" r:id="rId100" xr:uid="{B310F626-6CC6-7848-9FA8-1D384E6AA5EE}"/>
+    <hyperlink ref="D106" r:id="rId101" xr:uid="{560B073E-6DA8-6E42-9EE5-D2772296FB24}"/>
+    <hyperlink ref="D107" r:id="rId102" xr:uid="{1503FC26-DD5E-A04E-9F69-E344E99EEEE9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D24112-0E22-7E40-83A1-D468860D69F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65FD6A-D8BC-EF47-99E1-C33E7DFE3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="230">
   <si>
     <t>Publicação</t>
   </si>
@@ -718,6 +718,12 @@
   </si>
   <si>
     <t>Egressos de destaque da UNISUAM compõem Câmaras Técnicas do CREFITO-2</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/egressas-da-unisuam-marcam-presenca-na-osteopathy-australia-conference/</t>
+  </si>
+  <si>
+    <t>Egressas do Doutorado da UNISUAM marcam presença na Osteopathy Australia Conference</t>
   </si>
 </sst>
 </file>
@@ -1092,9 +1098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2600,6 +2608,20 @@
       </c>
       <c r="D107" s="2" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2706,6 +2728,7 @@
     <hyperlink ref="D105" r:id="rId100" xr:uid="{B310F626-6CC6-7848-9FA8-1D384E6AA5EE}"/>
     <hyperlink ref="D106" r:id="rId101" xr:uid="{560B073E-6DA8-6E42-9EE5-D2772296FB24}"/>
     <hyperlink ref="D107" r:id="rId102" xr:uid="{1503FC26-DD5E-A04E-9F69-E344E99EEEE9}"/>
+    <hyperlink ref="D108" r:id="rId103" xr:uid="{D5F1F0A7-7C1D-874D-B3D1-6C4A086866CE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65FD6A-D8BC-EF47-99E1-C33E7DFE3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC55F81-5303-5A4C-BE13-EDD1C7441243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="17" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="240">
   <si>
     <t>Publicação</t>
   </si>
@@ -724,6 +724,36 @@
   </si>
   <si>
     <t>Egressas do Doutorado da UNISUAM marcam presença na Osteopathy Australia Conference</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto-sensu/pesquisadora-egressa-da-unisuam-tem-pesquisa-premiada-na-australia/</t>
+  </si>
+  <si>
+    <t>Austrália</t>
+  </si>
+  <si>
+    <t>Bulgária</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Emirados Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Pesquisadora egressa da UNISUAM tem pesquisa premiada na Austrália</t>
   </si>
 </sst>
 </file>
@@ -802,9 +832,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -842,7 +872,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -948,7 +978,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1090,7 +1120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1098,17 +1128,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="174.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1988,7 +2018,7 @@
         <v>135</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>134</v>
@@ -2058,7 +2088,7 @@
         <v>112</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>111</v>
@@ -2114,7 +2144,7 @@
         <v>161</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>162</v>
@@ -2156,7 +2186,7 @@
         <v>156</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>155</v>
@@ -2366,7 +2396,7 @@
         <v>183</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>184</v>
@@ -2436,7 +2466,7 @@
         <v>171</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>172</v>
@@ -2520,7 +2550,7 @@
         <v>202</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>201</v>
@@ -2618,10 +2648,24 @@
         <v>229</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2729,6 +2773,7 @@
     <hyperlink ref="D106" r:id="rId101" xr:uid="{560B073E-6DA8-6E42-9EE5-D2772296FB24}"/>
     <hyperlink ref="D107" r:id="rId102" xr:uid="{1503FC26-DD5E-A04E-9F69-E344E99EEEE9}"/>
     <hyperlink ref="D108" r:id="rId103" xr:uid="{D5F1F0A7-7C1D-874D-B3D1-6C4A086866CE}"/>
+    <hyperlink ref="D109" r:id="rId104" xr:uid="{66E49DE5-F3CC-D846-8CCC-578F65D7F9D5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC55F81-5303-5A4C-BE13-EDD1C7441243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D26C97-C423-3040-BFB9-DC41743811C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1020" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="17" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="243">
   <si>
     <t>Publicação</t>
   </si>
@@ -754,6 +754,15 @@
   </si>
   <si>
     <t>Pesquisadora egressa da UNISUAM tem pesquisa premiada na Austrália</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto-sensu/pesquisa-da-unisuam-ganha-destaque-em-eventos-cientificos-nos-eua/</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Pesquisa de Pós-Doutorado da UNISUAM ganha destaque em eventos científicos nos EUA</t>
   </si>
 </sst>
 </file>
@@ -832,9 +841,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -872,7 +881,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -978,7 +987,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1120,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1128,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,6 +2675,20 @@
       </c>
       <c r="D109" s="2" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2774,6 +2797,7 @@
     <hyperlink ref="D107" r:id="rId102" xr:uid="{1503FC26-DD5E-A04E-9F69-E344E99EEEE9}"/>
     <hyperlink ref="D108" r:id="rId103" xr:uid="{D5F1F0A7-7C1D-874D-B3D1-6C4A086866CE}"/>
     <hyperlink ref="D109" r:id="rId104" xr:uid="{66E49DE5-F3CC-D846-8CCC-578F65D7F9D5}"/>
+    <hyperlink ref="D110" r:id="rId105" xr:uid="{09E50F8E-B09E-8B4B-A158-896B00923BA9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog institucional.xlsx
+++ b/docs/PPG/Blog institucional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D26C97-C423-3040-BFB9-DC41743811C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD474C9-2ADF-FE40-928F-866E3F22086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
   <si>
     <t>Publicação</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>Pesquisa de Pós-Doutorado da UNISUAM ganha destaque em eventos científicos nos EUA</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/stricto-sensu/unisuam-conquista-premio-no-confir-2025-com-pesquisa-inovadora-em-fisioterapia-cardiovascular/</t>
+  </si>
+  <si>
+    <t>UNISUAM conquista prêmio no CONFIR 2025 com pesquisa inovadora em fisioterapia cardiovascular</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF805655-101D-E249-A18A-A9A71B29B272}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2689,6 +2695,20 @@
       </c>
       <c r="D110" s="2" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2798,6 +2818,7 @@
     <hyperlink ref="D108" r:id="rId103" xr:uid="{D5F1F0A7-7C1D-874D-B3D1-6C4A086866CE}"/>
     <hyperlink ref="D109" r:id="rId104" xr:uid="{66E49DE5-F3CC-D846-8CCC-578F65D7F9D5}"/>
     <hyperlink ref="D110" r:id="rId105" xr:uid="{09E50F8E-B09E-8B4B-A158-896B00923BA9}"/>
+    <hyperlink ref="D111" r:id="rId106" xr:uid="{A0CE41F5-AAB3-684F-9324-D30208A4B132}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
